--- a/temp/xlsx/30.10.2024.xlsx
+++ b/temp/xlsx/30.10.2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J174"/>
+  <dimension ref="A1:J172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4101,7 +4101,7 @@
         <v>12</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -4162,57 +4162,59 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>С-71</t>
+          <t>С-72</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>5</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Физ-ра</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Мальцева Т.А.</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G85" t="n">
-        <v>2</v>
+          <t>С/з 3 к</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>УП.03</t>
+          <t> </t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Иванов А.Н.</t>
-        </is>
-      </c>
-      <c r="J85" t="n">
-        <v>12</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>С-71</t>
+          <t>С-72</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -4235,20 +4237,20 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>УП.03</t>
+          <t>Основ.оборуд.для пр-ва сварн.констр-ций</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Иванов А.Н.</t>
+          <t>Витохина Г.Д.</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
@@ -4258,25 +4260,23 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Физ-ра</t>
+          <t>Ин.яз.</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Мальцева Т.А.</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>С/з 3 к</t>
-        </is>
+          <t>Колебер В.А.</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>305</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -4333,120 +4333,118 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Основ.оборуд.для пр-ва сварн.констр-ций</t>
+          <t>Физ-ра</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Витохина Г.Д.</t>
-        </is>
-      </c>
-      <c r="J88" t="n">
-        <v>10</v>
+          <t>Ольховой Е.С.</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>с.з.1</t>
+        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>С-72</t>
+          <t>СВ-134</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>4</v>
-      </c>
-      <c r="C89" t="n">
         <v>2</v>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Ин.яз.</t>
+          <t> </t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Колебер В.А.</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>305</v>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>2</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Информ.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Петрова О.Б.</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>306</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>С-72</t>
+          <t>СВ-134</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>5</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Осн.безоп.защ.Родины</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Ковальчук Ю.А.</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>423</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Физ-ра</t>
+          <t>Осн.безоп.защ.Родины</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Ольховой Е.С.</t>
+          <t>Ковальчук Ю.А.</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>с.з.1</t>
+          <t>23а</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>СВ-134</t>
+          <t>КИП1-193</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -4469,64 +4467,64 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Информ.</t>
+          <t>Тех эл/монтаж.работ</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Петрова О.Б.</t>
-        </is>
-      </c>
-      <c r="J91" t="n">
-        <v>306</v>
+          <t>Лисневская Т.И.</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>РЦ-5</t>
+        </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>СВ-134</t>
+          <t>КИП1-193</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Осн.безоп.защ.Родины</t>
+          <t>Тех слесар.и сл.-сбороч.работ</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Ковальчук Ю.А.</t>
+          <t>Михеева Е.В.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>423</v>
+        <v>531</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Осн.безоп.защ.Родины</t>
+          <t>Тех слесар.и сл.-сбороч.работ</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Ковальчук Ю.А.</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>23а</t>
-        </is>
+          <t>Михеева Е.В.</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>522</v>
       </c>
     </row>
     <row r="93">
@@ -4536,7 +4534,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -4563,89 +4561,89 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Тех эл/монтаж.работ</t>
+          <t>Физ-ра</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Лисневская Т.И.</t>
+          <t>Первухин И.С.</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>РЦ-5</t>
+          <t>3 кор</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>КИП1-193</t>
+          <t>КИП1-194</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Тех слесар.и сл.-сбороч.работ</t>
+          <t>Рус.язык</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Михеева Е.В.</t>
+          <t>Глущенко А.А.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>531</v>
+        <v>421</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Тех слесар.и сл.-сбороч.работ</t>
+          <t>Физ-ра</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Михеева Е.В.</t>
-        </is>
-      </c>
-      <c r="J94" t="n">
-        <v>522</v>
+          <t>Первухин И.С.</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>3 кор</t>
+        </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>КИП1-193</t>
+          <t>КИП1-194</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>4</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Физ-ра</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Первухин И.С.</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t> </t>
+          <t>с/з 1к</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -4653,18 +4651,16 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Физ-ра</t>
+          <t>КЛАССНЫЙ ЧАС</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Первухин И.С.</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>3 кор</t>
-        </is>
+          <t>Богодская Т.С.</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>302</v>
       </c>
     </row>
     <row r="96">
@@ -4674,41 +4670,43 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Рус.язык</t>
+          <t> </t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Глущенко А.А.</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>421</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="G96" t="n">
         <v>0</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Физ-ра</t>
+          <t>Физика</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Первухин И.С.</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>3 кор</t>
-        </is>
+          <t>Кушнаренко Е.В.</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>411</v>
       </c>
     </row>
     <row r="97">
@@ -4718,41 +4716,43 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Физ-ра</t>
+          <t>Ин.яз.</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Первухин И.С.</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>с/з 1к</t>
-        </is>
-      </c>
-      <c r="G97" t="n">
-        <v>0</v>
+          <t>Ермакова Н.В.</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>427</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>КЛАССНЫЙ ЧАС</t>
+          <t> </t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Богодская Т.С.</t>
-        </is>
-      </c>
-      <c r="J97" t="n">
-        <v>302</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -4764,67 +4764,67 @@
       <c r="B98" t="n">
         <v>4</v>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C98" t="n">
+        <v>2</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Ин.яз.</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G98" t="n">
-        <v>0</v>
+          <t>Угарова А.С.</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>301</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Физика</t>
+          <t> </t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Кушнаренко Е.В.</t>
-        </is>
-      </c>
-      <c r="J98" t="n">
-        <v>411</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>КИП1-194</t>
+          <t>КИП2-194</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Ин.яз.</t>
+          <t>Осн.береж.произ.</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Ермакова Н.В.</t>
+          <t>Сулейменова Д.Б.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>427</v>
+        <v>213</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -4850,46 +4850,44 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>КИП1-194</t>
+          <t>КИП2-194</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Ин.яз.</t>
+          <t>Допуски и тех.изм.</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Угарова А.С.</t>
+          <t>Уленкова Е.В.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>301</v>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>522</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Физ-ра</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Первухин И.С.</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t> </t>
+          <t>С/з 3 к</t>
         </is>
       </c>
     </row>
@@ -4900,43 +4898,43 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
           <t>Осн.береж.произ.</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>Сулейменова Д.Б.</t>
         </is>
       </c>
-      <c r="F101" t="n">
+      <c r="J101" t="n">
         <v>213</v>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
       </c>
     </row>
     <row r="102">
@@ -4946,40 +4944,42 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Допуски и тех.изм.</t>
+          <t>Тех.граф.</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Уленкова Е.В.</t>
+          <t>Сулейменова Д.Б.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>522</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Физ-ра</t>
+          <t> </t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Первухин И.С.</t>
+          <t> </t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>С/з 3 к</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -4990,7 +4990,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Осн.береж.произ.</t>
+          <t>Материаловед.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -5032,27 +5032,29 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>КИП2-194</t>
+          <t>НП-161</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Тех.граф.</t>
+          <t>Ремонт.работы</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Сулейменова Д.Б.</t>
-        </is>
-      </c>
-      <c r="F104" t="n">
-        <v>213</v>
+          <t>Андреев М.А.</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1 А</t>
+        </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5078,11 +5080,11 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>КИП2-194</t>
+          <t>НП-161</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -5109,230 +5111,228 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Материаловед.</t>
+          <t>Ремонт.работы</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Сулейменова Д.Б.</t>
-        </is>
-      </c>
-      <c r="J105" t="n">
-        <v>213</v>
+          <t>Рунг К.М.</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>1 А</t>
+        </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>НП-161</t>
+          <t>НП-162</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Ремонт.работы</t>
+          <t> </t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Андреев М.А.</t>
+          <t> </t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>1 А</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Ин.яз.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Ермакова Н.В.</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>427</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>НП-161</t>
+          <t>НП-163</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>5</v>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Осн.береж.производ.</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G107" t="n">
-        <v>0</v>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Ремонт.работы</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>Рунг К.М.</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>1 А</t>
-        </is>
-      </c>
+          <t>Ахметова А.С.</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>314</v>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>НП-162</t>
+          <t>НП-163</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>4</v>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C108" t="n">
+        <v>0</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Метролог.,станд.и сертиф-ция</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Сулейменова Д.Б.</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>213</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Ин.яз.</t>
+          <t>Тех.мех.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Ермакова Н.В.</t>
+          <t>Смоилова С.К.</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>427</v>
+        <v>307</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>НП-163</t>
+          <t>НП-164</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Осн.береж.производ.</t>
+          <t> </t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Ахметова А.С.</t>
-        </is>
-      </c>
-      <c r="F109" t="n">
-        <v>314</v>
-      </c>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Обществ.</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Смальцева М.Н.</t>
+        </is>
+      </c>
+      <c r="J109" t="n">
+        <v>426</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>НП-163</t>
+          <t>НП-164</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Метролог.,станд.и сертиф-ция</t>
+          <t>Ин.яз.</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Сулейменова Д.Б.</t>
+          <t>Угарова А.С.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>213</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0</v>
+        <v>301</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Тех.мех.</t>
+          <t> </t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Смоилова С.К.</t>
-        </is>
-      </c>
-      <c r="J110" t="n">
-        <v>307</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="111">
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -5384,93 +5384,91 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>НП-164</t>
+          <t>ТО-83</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>3</v>
-      </c>
-      <c r="C112" t="n">
         <v>2</v>
       </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Ин.яз.</t>
+          <t> </t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Угарова А.С.</t>
-        </is>
-      </c>
-      <c r="F112" t="n">
-        <v>301</v>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Ин.яз.в ПД</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Каширина Л.В.</t>
+        </is>
+      </c>
+      <c r="J112" t="n">
+        <v>535</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>НП-164</t>
+          <t>ТО-83</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>4</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t> </t>
+          <t>БЖД</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Петрушков А.В.</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>537</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Обществ.</t>
+          <t>БЖД</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Смальцева М.Н.</t>
-        </is>
-      </c>
-      <c r="J113" t="n">
-        <v>426</v>
+          <t>Петрушков А.В.</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>РЦ-7</t>
+        </is>
       </c>
     </row>
     <row r="114">
@@ -5480,49 +5478,45 @@
         </is>
       </c>
       <c r="B114" t="n">
+        <v>5</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Экспл.,расчет и выбор теплотех.оборуд</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Глухов С.В.</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
         <v>2</v>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="G114" t="n">
         <v>0</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Ин.яз.в ПД</t>
+          <t>Экспл.,расчет и выбор теплотех.оборуд</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Каширина Л.В.</t>
+          <t>Глухов С.В.</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>535</v>
+        <v>316</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ТО-83</t>
+          <t>ТО-84</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -5533,206 +5527,210 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>БЖД</t>
+          <t>Теор.осн.теплотех.и гидравлики</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Петрушков А.В.</t>
+          <t>Глухов С.В.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>537</v>
+        <v>2</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>БЖД</t>
+          <t>Теор.осн.теплотех.и гидравлики</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Петрушков А.В.</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>РЦ-7</t>
-        </is>
+          <t>Глухов С.В.</t>
+        </is>
+      </c>
+      <c r="J115" t="n">
+        <v>314</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ТО-83</t>
+          <t>Л-14</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Экспл.,расчет и выбор теплотех.оборуд</t>
+          <t>Химия</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Глухов С.В.</t>
+          <t>Ершова К.С.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2</v>
+        <v>311</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Экспл.,расчет и выбор теплотех.оборуд</t>
+          <t>Химия</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Глухов С.В.</t>
+          <t>Ершова К.С.</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ТО-84</t>
+          <t>Л-14</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>3</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Теор.осн.теплотех.и гидравлики</t>
+          <t> </t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Глухов С.В.</t>
-        </is>
-      </c>
-      <c r="F117" t="n">
+          <t> </t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G117" t="n">
         <v>2</v>
       </c>
-      <c r="G117" t="n">
-        <v>0</v>
-      </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Теор.осн.теплотех.и гидравлики</t>
+          <t>Химия</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Глухов С.В.</t>
+          <t>Ершова К.С.</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Л-14</t>
+          <t>Э-41</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Химия</t>
+          <t>Осн.ТЭ и обсл.эл/оборуд.</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Ершова К.С.</t>
-        </is>
-      </c>
-      <c r="F118" t="n">
-        <v>311</v>
-      </c>
-      <c r="G118" t="n">
-        <v>1</v>
+          <t>Данильченко Л.Р.</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1Б</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Химия</t>
+          <t> </t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Ершова К.С.</t>
-        </is>
-      </c>
-      <c r="J118" t="n">
-        <v>311</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Л-14</t>
+          <t>Э-41</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>5</v>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Правовые основы профессиональной деятельности</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Шевченко О.П.</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>529</v>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Химия</t>
+          <t>УП.01</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Ершова К.С.</t>
+          <t>Глухов С.В.</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="120">
@@ -5742,133 +5740,129 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>3</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Осн.ТЭ и обсл.эл/оборуд.</t>
+          <t> </t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Данильченко Л.Р.</t>
+          <t> </t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>1Б</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t> </t>
+          <t>УП.01</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Глухов С.В.</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
+        <v>314</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Э-41</t>
+          <t>Э-42</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Правовые основы профессиональной деятельности</t>
+          <t>Экол.осн.природопольз.</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Шевченко О.П.</t>
+          <t>Рунг К.М.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>529</v>
+        <v>307</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>УП.01</t>
+          <t>Экол.осн.природопольз.</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Глухов С.В.</t>
-        </is>
-      </c>
-      <c r="J121" t="n">
-        <v>314</v>
+          <t>Рунг К.М.</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>1 А</t>
+        </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Э-41</t>
+          <t>Э-42</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>5</v>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Эл.машины и аппараты</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Данильченко Л.Р.</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>7</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>УП.01</t>
+          <t>Осн.ТЭ и обсл.эл/оборуд.</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Глухов С.В.</t>
+          <t>Рухляда Л.А.</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>314</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123">
@@ -5878,41 +5872,39 @@
         </is>
       </c>
       <c r="B123" t="n">
+        <v>3</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Эл-кое и эл/мех.оборуд.</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Ряписов В.П.</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>210</v>
+      </c>
+      <c r="G123" t="n">
         <v>1</v>
       </c>
-      <c r="C123" t="n">
-        <v>0</v>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Экол.осн.природопольз.</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Рунг К.М.</t>
-        </is>
-      </c>
-      <c r="F123" t="n">
-        <v>307</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0</v>
-      </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Экол.осн.природопольз.</t>
+          <t>Тех.рег.и контроль кач-ва</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Рунг К.М.</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>1 А</t>
-        </is>
+          <t>Ряписов В.П.</t>
+        </is>
+      </c>
+      <c r="J123" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="124">
@@ -5922,39 +5914,43 @@
         </is>
       </c>
       <c r="B124" t="n">
+        <v>3</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G124" t="n">
         <v>2</v>
       </c>
-      <c r="C124" t="n">
-        <v>0</v>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Эл.машины и аппараты</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Данильченко Л.Р.</t>
-        </is>
-      </c>
-      <c r="F124" t="n">
-        <v>7</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0</v>
-      </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Осн.ТЭ и обсл.эл/оборуд.</t>
+          <t>Ин.яз.в ПД</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Рухляда Л.А.</t>
+          <t>Кашуба Н.Ю.</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>6</v>
+        <v>413</v>
       </c>
     </row>
     <row r="125">
@@ -5964,95 +5960,99 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>3</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Эл-кое и эл/мех.оборуд.</t>
+          <t> </t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Ряписов В.П.</t>
-        </is>
-      </c>
-      <c r="F125" t="n">
-        <v>210</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Тех.рег.и контроль кач-ва</t>
+          <t>Ин.яз.в ПД</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Ряписов В.П.</t>
+          <t>Кашуба Н.Ю.</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>210</v>
+        <v>413</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Э-42</t>
+          <t>ХТ-251</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>3</v>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Физ-ра</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Первухин И.С.</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t> </t>
+          <t>С.з 1к</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Ин.яз.в ПД</t>
+          <t>Осн.авт-ции тех.процессов</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Кашуба Н.Ю.</t>
-        </is>
-      </c>
-      <c r="J126" t="n">
-        <v>413</v>
+          <t>Удрас Д.Н.</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>РЦ-2</t>
+        </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Э-42</t>
+          <t>ХТ-251</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -6075,113 +6075,113 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Ин.яз.в ПД</t>
+          <t>Осн.авт-ции тех.процессов</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Кашуба Н.Ю.</t>
-        </is>
-      </c>
-      <c r="J127" t="n">
-        <v>413</v>
+          <t>Удрас Д.Н.</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>РЦ-2</t>
+        </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ХТ-251</t>
+          <t>ХТ-252</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Физ-ра</t>
+          <t>Процессы  и аппараты</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Первухин И.С.</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>С.з 1к</t>
-        </is>
-      </c>
-      <c r="G128" t="n">
-        <v>0</v>
+          <t>Первухина Т.В.</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>316</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Осн.авт-ции тех.процессов</t>
+          <t> </t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Удрас Д.Н.</t>
+          <t> </t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>РЦ-2</t>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ХТ-251</t>
+          <t>ХТ-252</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>6</v>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Охрана труда</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G129" t="n">
-        <v>0</v>
+          <t>Первухина Т.В.</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>316</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Осн.авт-ции тех.процессов</t>
+          <t> </t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Удрас Д.Н.</t>
+          <t> </t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>РЦ-2</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6192,23 +6192,25 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Процессы  и аппараты</t>
+          <t>Физ-ра</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Первухина Т.В.</t>
-        </is>
-      </c>
-      <c r="F130" t="n">
-        <v>316</v>
+          <t>Первухин И.С.</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>с/з 1к</t>
+        </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6238,42 +6240,44 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>3</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Охрана труда</t>
+          <t> </t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Первухина Т.В.</t>
-        </is>
-      </c>
-      <c r="F131" t="n">
-        <v>316</v>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Физ-ра</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Первухин И.С.</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 кор</t>
         </is>
       </c>
     </row>
@@ -6284,55 +6288,53 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>4</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Физ-ра</t>
+          <t> </t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Первухин И.С.</t>
+          <t> </t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>с/з 1к</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Процессы  и аппараты</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Первухина Т.В.</t>
+        </is>
+      </c>
+      <c r="J132" t="n">
+        <v>316</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ХТ-252</t>
+          <t>ХТ-253</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -6355,32 +6357,30 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Физ-ра</t>
+          <t>Орг химия</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Первухин И.С.</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>3 кор</t>
-        </is>
+          <t>Юнусова А.А.</t>
+        </is>
+      </c>
+      <c r="J133" t="n">
+        <v>211</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ХТ-252</t>
+          <t>ХТ-254</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -6407,26 +6407,26 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Процессы  и аппараты</t>
+          <t>Обществ.</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Первухина Т.В.</t>
+          <t>Смальцева М.Н.</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>316</v>
+        <v>426</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ХТ-253</t>
+          <t>ХТ-254</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -6449,20 +6449,20 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Орг химия</t>
+          <t>Обществ.</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Юнусова А.А.</t>
+          <t>Смальцева М.Н.</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>211</v>
+        <v>426</v>
       </c>
     </row>
     <row r="136">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -6499,16 +6499,18 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Обществ.</t>
+          <t>Физ-ра</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Смальцева М.Н.</t>
-        </is>
-      </c>
-      <c r="J136" t="n">
-        <v>426</v>
+          <t>Первухин И.С.</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>С/з 3 к</t>
+        </is>
       </c>
     </row>
     <row r="137">
@@ -6518,117 +6520,117 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>2</v>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Физика</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G137" t="n">
-        <v>0</v>
+          <t>Окаевич В.И.</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>309</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Обществ.</t>
+          <t> </t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Смальцева М.Н.</t>
-        </is>
-      </c>
-      <c r="J137" t="n">
-        <v>426</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ХТ-254</t>
+          <t>ББ-122</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>3</v>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Орг.расч.с бюдж. и внебюдж.фондами</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G138" t="n">
-        <v>0</v>
+          <t>Ибраева О.Ю.</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>515</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Физ-ра</t>
+          <t> </t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Первухин И.С.</t>
+          <t> </t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>С/з 3 к</t>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ХТ-254</t>
+          <t>ББ-122</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Физика</t>
+          <t>Аудит</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Окаевич В.И.</t>
-        </is>
-      </c>
-      <c r="F139" t="n">
-        <v>309</v>
+          <t>ВАКАНСИЯ 1</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>б.а.3</t>
+        </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -6658,43 +6660,43 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Орг.расч.с бюдж. и внебюдж.фондами</t>
+          <t> </t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Ибраева О.Ю.</t>
-        </is>
-      </c>
-      <c r="F140" t="n">
-        <v>515</v>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Аудит</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Ольшевская Г.Ц.</t>
+        </is>
+      </c>
+      <c r="J140" t="n">
+        <v>533</v>
       </c>
     </row>
     <row r="141">
@@ -6704,55 +6706,53 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
           <t>Аудит</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>ВАКАНСИЯ 1</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>б.а.3</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Ольшевская Г.Ц.</t>
+        </is>
+      </c>
+      <c r="J141" t="n">
+        <v>533</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ББ-122</t>
+          <t>ББ-123</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -6775,66 +6775,62 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Аудит</t>
+          <t>Информ.тех-гии в ПД</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Ольшевская Г.Ц.</t>
+          <t>Старикова А.С.</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>533</v>
+        <v>542</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ББ-122</t>
+          <t>ББ-123</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>6</v>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Налоги и налогообложение</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Ибраева О.Ю.</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>515</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Аудит</t>
+          <t>Информ.тех-гии в ПД</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Ольшевская Г.Ц.</t>
+          <t>Старикова А.С.</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>533</v>
+        <v>542</v>
       </c>
     </row>
     <row r="144">
@@ -6844,30 +6840,26 @@
         </is>
       </c>
       <c r="B144" t="n">
+        <v>3</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Налоги и налогообложение</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Ибраева О.Ю.</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>515</v>
+      </c>
+      <c r="G144" t="n">
         <v>1</v>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G144" t="n">
-        <v>2</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
@@ -6890,14 +6882,14 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Налоги и налогообложение</t>
+          <t>Орг.расч.с бюдж. и внебюдж.фондами</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6909,7 +6901,7 @@
         <v>515</v>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
@@ -6928,7 +6920,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ББ-123</t>
+          <t>Э-44</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -6939,117 +6931,127 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Налоги и налогообложение</t>
+          <t>География</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Ибраева О.Ю.</t>
+          <t>Рунг К.М.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>515</v>
+        <v>307</v>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Информ.тех-гии в ПД</t>
+          <t>География</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Старикова А.С.</t>
-        </is>
-      </c>
-      <c r="J146" t="n">
-        <v>542</v>
+          <t>Рунг К.М.</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>1 А</t>
+        </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ББ-123</t>
+          <t>ЭС-172</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>4</v>
-      </c>
-      <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Орг.расч.с бюдж. и внебюдж.фондами</t>
+          <t> </t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Ибраева О.Ю.</t>
-        </is>
-      </c>
-      <c r="F147" t="n">
-        <v>515</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Информ.тех-гии в ПД</t>
+          <t>Осн.управ.персон.произв.подразд.</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Старикова А.С.</t>
+          <t>Лазакович Т.Г.</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>542</v>
+        <v>125</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Э-44</t>
+          <t>ЭС-172</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>География</t>
+          <t>УП.01</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Рунг К.М.</t>
-        </is>
-      </c>
-      <c r="F148" t="n">
-        <v>307</v>
-      </c>
-      <c r="G148" t="n">
-        <v>0</v>
+          <t>Коровин Е.В.</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Б.А</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>География</t>
+          <t> </t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Рунг К.М.</t>
+          <t> </t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>1 А</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7060,7 +7062,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -7087,16 +7089,18 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Осн.управ.персон.произв.подразд.</t>
+          <t>Физ-ра</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Лазакович Т.Г.</t>
-        </is>
-      </c>
-      <c r="J149" t="n">
-        <v>125</v>
+          <t>Мальцева Т.А.</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>3 кор</t>
+        </is>
       </c>
     </row>
     <row r="150">
@@ -7106,7 +7110,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C150" t="n">
         <v>2</v>
@@ -7154,44 +7158,44 @@
         </is>
       </c>
       <c r="B151" t="n">
+        <v>3</v>
+      </c>
+      <c r="C151" t="n">
         <v>2</v>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t> </t>
+          <t>УП.01</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Коровин Е.В.</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G151" t="n">
-        <v>0</v>
+          <t>Б.А</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Физ-ра</t>
+          <t> </t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Мальцева Т.А.</t>
+          <t> </t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>3 кор</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7202,10 +7206,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -7219,7 +7223,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Б.А</t>
+          <t>РЦ-3</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -7250,10 +7254,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -7267,7 +7271,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Б.А</t>
+          <t>РЦ-3</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -7298,7 +7302,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C154" t="n">
         <v>1</v>
@@ -7342,29 +7346,27 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ЭС-172</t>
+          <t>ЭС-173</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>УП.01</t>
+          <t>Релейная защ.ЭЭССС</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Коровин Е.В.</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>РЦ-3</t>
-        </is>
+          <t>Пимонов Д.Е.</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>12</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7390,95 +7392,89 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ЭС-172</t>
+          <t>ЭМ1-103</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>6</v>
-      </c>
-      <c r="C156" t="n">
         <v>1</v>
       </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>УП.01</t>
+          <t> </t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Коровин Е.В.</t>
+          <t> </t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>РЦ-3</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>2</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Тех.черчение</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Шнайдер Т.А.</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>424</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ЭС-173</t>
+          <t>ЭМ1-103</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Релейная защ.ЭЭССС</t>
+          <t>Осн.тех.мех. и слес.раб.</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Пимонов Д.Е.</t>
+          <t>Михеева Е.В.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>12</v>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>531</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Осн.тех.мех. и слес.раб.</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Михеева Е.В.</t>
+        </is>
+      </c>
+      <c r="J157" t="n">
+        <v>522</v>
       </c>
     </row>
     <row r="158">
@@ -7488,127 +7484,129 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Осн.тех.мех. и слес.раб.</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Михеева Е.В.</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>531</v>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Тех.черчение</t>
+          <t>Осн.тех.мех. и слес.раб.</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Шнайдер Т.А.</t>
+          <t>Михеева Е.В.</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>424</v>
+        <v>522</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ЭМ1-103</t>
+          <t>ЭМ1-104</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>3</v>
-      </c>
-      <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Осн.тех.мех. и слес.раб.</t>
+          <t> </t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Михеева Е.В.</t>
-        </is>
-      </c>
-      <c r="F159" t="n">
-        <v>531</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="G159" t="n">
         <v>0</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Осн.тех.мех. и слес.раб.</t>
+          <t>Биология</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Михеева Е.В.</t>
+          <t>Незванова Н.М.</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>522</v>
+        <v>425</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ЭМ1-103</t>
+          <t>ЭМ1-104</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Осн.тех.мех. и слес.раб.</t>
+          <t>ФК</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Михеева Е.В.</t>
-        </is>
-      </c>
-      <c r="F160" t="n">
-        <v>531</v>
+          <t>Первухин И.С.</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>с/з 1к</t>
+        </is>
       </c>
       <c r="G160" t="n">
         <v>0</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Осн.тех.мех. и слес.раб.</t>
+          <t>Физика</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Михеева Е.В.</t>
+          <t>Кушнаренко Е.В.</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>522</v>
+        <v>411</v>
       </c>
     </row>
     <row r="161">
@@ -7618,70 +7616,72 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Рус.язык</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G161" t="n">
-        <v>0</v>
+          <t>Глущенко А.А.</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>421</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Биология</t>
+          <t> </t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Незванова Н.М.</t>
-        </is>
-      </c>
-      <c r="J161" t="n">
-        <v>425</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ЭМ1-104</t>
+          <t>ЭМ2-103</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>2</v>
-      </c>
-      <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>ФК</t>
+          <t> </t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Первухин И.С.</t>
+          <t> </t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>с/з 1к</t>
+          <t> </t>
         </is>
       </c>
       <c r="G162" t="n">
@@ -7689,61 +7689,65 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Физика</t>
+          <t>УП.01</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Кушнаренко Е.В.</t>
-        </is>
-      </c>
-      <c r="J162" t="n">
-        <v>411</v>
+          <t>Белова Н.А.</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>РЦ-6</t>
+        </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ЭМ1-104</t>
+          <t>ЭМ2-103</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>5</v>
-      </c>
-      <c r="C163" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Рус.язык</t>
+          <t> </t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Глущенко А.А.</t>
-        </is>
-      </c>
-      <c r="F163" t="n">
-        <v>421</v>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t> </t>
+          <t>УП.01</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Белова Н.А.</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t> </t>
+          <t>РЦ-6</t>
         </is>
       </c>
     </row>
@@ -7754,7 +7758,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -7802,26 +7806,24 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>2</v>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Орг.работ по сборке,монтажу</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ВАКАНСИЯ</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t> </t>
+          <t>без аудит</t>
         </is>
       </c>
       <c r="G165" t="n">
@@ -7829,7 +7831,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>УП.01</t>
+          <t>Орг.и техн-гия проверки эл/оборуд.</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -7839,7 +7841,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>РЦ-6</t>
+          <t>РЦ-5</t>
         </is>
       </c>
     </row>
@@ -7850,44 +7852,42 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>3</v>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Осн.слесар.-сбороч.эл/монтаж.работ</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G166" t="n">
-        <v>0</v>
+          <t>Михеева Е.В.</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>531</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>УП.01</t>
+          <t> </t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Белова Н.А.</t>
+          <t> </t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>РЦ-6</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7898,115 +7898,115 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Орг.работ по сборке,монтажу</t>
+          <t>Осн.слесар.-сбороч.эл/монтаж.работ</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ВАКАНСИЯ</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>без аудит</t>
-        </is>
-      </c>
-      <c r="G167" t="n">
-        <v>0</v>
+          <t>Михеева Е.В.</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>531</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Орг.и техн-гия проверки эл/оборуд.</t>
+          <t> </t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Белова Н.А.</t>
+          <t> </t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>РЦ-5</t>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ЭМ2-103</t>
+          <t>ЭМ2-104</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>5</v>
-      </c>
-      <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Осн.слесар.-сбороч.эл/монтаж.работ</t>
+          <t> </t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Михеева Е.В.</t>
-        </is>
-      </c>
-      <c r="F168" t="n">
-        <v>531</v>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Ин.яз.</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Дёмочкина В.П.</t>
+        </is>
+      </c>
+      <c r="J168" t="n">
+        <v>514</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ЭМ2-103</t>
+          <t>ЭМ2-104</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Осн.слесар.-сбороч.эл/монтаж.работ</t>
+          <t>Матем.</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Михеева Е.В.</t>
+          <t>Восквицова Т.Н.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>531</v>
+        <v>422</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ЭМ2-104</t>
+          <t>ЭТ-132</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -8059,66 +8059,62 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Ин.яз.</t>
+          <t>Опер.обслуж.подстан. и рас.сетей</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Дёмочкина В.П.</t>
+          <t>Ряписов В.П.</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>514</v>
+        <v>210</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ЭМ2-104</t>
+          <t>ЭТ-132</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Матем.</t>
+          <t>Астрономия</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Восквицова Т.Н.</t>
+          <t>Карабут М.В.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>422</v>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>425</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Астрономия</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Карабут М.В.</t>
+        </is>
+      </c>
+      <c r="J171" t="n">
+        <v>423</v>
       </c>
     </row>
     <row r="172">
@@ -8128,7 +8124,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -8151,7 +8147,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
@@ -8164,94 +8160,6 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>ЭТ-132</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>3</v>
-      </c>
-      <c r="C173" t="n">
-        <v>0</v>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Астрономия</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>Карабут М.В.</t>
-        </is>
-      </c>
-      <c r="F173" t="n">
-        <v>425</v>
-      </c>
-      <c r="G173" t="n">
-        <v>0</v>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>Астрономия</t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>Карабут М.В.</t>
-        </is>
-      </c>
-      <c r="J173" t="n">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>ЭТ-132</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>5</v>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G174" t="n">
-        <v>2</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>Опер.обслуж.подстан. и рас.сетей</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>Ряписов В.П.</t>
-        </is>
-      </c>
-      <c r="J174" t="n">
         <v>210</v>
       </c>
     </row>

--- a/temp/xlsx/30.10.2024.xlsx
+++ b/temp/xlsx/30.10.2024.xlsx
@@ -5721,7 +5721,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>УП.01</t>
+          <t>УП.03</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>УП.01</t>
+          <t>УП.03</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
